--- a/RepArm BOM.xlsx
+++ b/RepArm BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/786dea624a74ced3/_Projects/Cartesian robot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\_Projects\Cartesian robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Bill of materials</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>Wood screws for mounting</t>
+  </si>
+  <si>
+    <t>Square M3 nuts</t>
+  </si>
+  <si>
+    <t>M3 nuts</t>
+  </si>
+  <si>
+    <t>Various M3 bolts</t>
   </si>
 </sst>
 </file>
@@ -548,7 +557,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,26 +778,45 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
         <v>30</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4">
         <f>SUM(C2:C16)</f>
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
